--- a/data/trans_orig/P38C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA7D55D8-AEF3-4A9E-8BDA-A9CA69B27244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B77618FD-21AA-404E-8368-0F3BBE5AC2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C51F0E3-2B7A-4487-AD67-5ACF4B69920C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E7D425A-C723-4AA0-BAD1-67BF0AC6E860}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
   <si>
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2015 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -75,169 +75,169 @@
     <t>83,68%</t>
   </si>
   <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>79,91%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
+    <t>11,54%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>12,07%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -246,55 +246,49 @@
     <t>80,21%</t>
   </si>
   <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -303,427 +297,421 @@
     <t>80,46%</t>
   </si>
   <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>84,33%</t>
   </si>
   <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
     <t>80,9%</t>
   </si>
   <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>19,1%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>15,89%</t>
   </si>
   <si>
     <t>19,12%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262D1BA0-5FDA-4499-AD92-2F785FCCAB26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967A9AB6-19C8-49F6-8060-4C72A773AC90}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1584,13 +1572,13 @@
         <v>940389</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1649</v>
@@ -1599,10 +1587,10 @@
         <v>1772204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -1635,13 +1623,13 @@
         <v>99632</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>265</v>
@@ -1650,13 +1638,13 @@
         <v>277242</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,13 +1727,13 @@
         <v>681877</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>1188</v>
@@ -1754,13 +1742,13 @@
         <v>1282965</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1763,13 @@
         <v>148294</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -1790,13 +1778,13 @@
         <v>99208</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>231</v>
@@ -1805,13 +1793,13 @@
         <v>247502</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1855,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1879,13 +1867,13 @@
         <v>747888</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>797</v>
@@ -1894,13 +1882,13 @@
         <v>875101</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>1545</v>
@@ -1909,13 +1897,13 @@
         <v>1622989</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1918,13 @@
         <v>181575</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -1945,13 +1933,13 @@
         <v>162561</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>333</v>
@@ -1960,13 +1948,13 @@
         <v>344136</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2022,13 @@
         <v>2735922</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>2884</v>
@@ -2049,13 +2037,13 @@
         <v>3084708</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>5500</v>
@@ -2064,13 +2052,13 @@
         <v>5820630</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2073,13 @@
         <v>622110</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>437</v>
@@ -2100,13 +2088,13 @@
         <v>443068</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1021</v>
@@ -2115,13 +2103,13 @@
         <v>1065178</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,7 +2165,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B1A36A-42C8-41A3-B8D5-02A4D4F2C872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8958BF4-2A24-4AD9-A8CF-53BB53384D99}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2215,7 +2203,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2322,13 +2310,13 @@
         <v>88950</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>229</v>
@@ -2337,13 +2325,13 @@
         <v>120107</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>338</v>
@@ -2352,13 +2340,13 @@
         <v>209057</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2361,13 @@
         <v>13032</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -2388,13 +2376,13 @@
         <v>10626</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -2403,13 +2391,13 @@
         <v>23658</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,10 +2483,10 @@
         <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>1490</v>
@@ -2507,13 +2495,13 @@
         <v>1014674</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2516,13 @@
         <v>79531</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -2543,13 +2531,13 @@
         <v>47063</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="M8" s="7">
         <v>116</v>
@@ -2558,13 +2546,13 @@
         <v>126594</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,28 +2620,28 @@
         <v>762519</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>1338</v>
       </c>
       <c r="I10" s="7">
-        <v>887088</v>
+        <v>887087</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>2130</v>
@@ -2662,13 +2650,13 @@
         <v>1649607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2671,13 @@
         <v>275267</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>176</v>
@@ -2698,13 +2686,13 @@
         <v>168610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>347</v>
@@ -2713,13 +2701,13 @@
         <v>443877</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,7 +2734,7 @@
         <v>1514</v>
       </c>
       <c r="I12" s="7">
-        <v>1055698</v>
+        <v>1055697</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2787,13 +2775,13 @@
         <v>577589</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>936</v>
@@ -2802,13 +2790,13 @@
         <v>760876</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>1500</v>
@@ -2817,13 +2805,13 @@
         <v>1338465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2826,13 @@
         <v>151183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>108</v>
@@ -2853,13 +2841,13 @@
         <v>110009</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>220</v>
@@ -2868,13 +2856,13 @@
         <v>261192</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,7 +2918,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2942,13 +2930,13 @@
         <v>766348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>1401</v>
@@ -2957,13 +2945,13 @@
         <v>968946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>2251</v>
@@ -2972,13 +2960,13 @@
         <v>1735295</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2981,13 @@
         <v>199055</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -3008,13 +2996,13 @@
         <v>181326</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>316</v>
@@ -3023,13 +3011,13 @@
         <v>380380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3085,13 @@
         <v>2665699</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>4839</v>
@@ -3112,13 +3100,13 @@
         <v>3281398</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="M19" s="7">
         <v>7709</v>
@@ -3127,13 +3115,13 @@
         <v>5947097</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3136,13 @@
         <v>718067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>517</v>
@@ -3163,13 +3151,13 @@
         <v>517634</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>1022</v>
@@ -3178,13 +3166,13 @@
         <v>1235701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,7 +3228,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B77618FD-21AA-404E-8368-0F3BBE5AC2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC47780C-B8CD-463B-B486-8BBFA533E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E7D425A-C723-4AA0-BAD1-67BF0AC6E860}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6475664F-9A0E-41C0-AC78-FBB273A42753}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
-  <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2015 (Tasa respuesta: 99,27%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="233">
+  <si>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2016 (Tasa respuesta: 99,27%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,28 +75,28 @@
     <t>83,68%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>85,22%</t>
   </si>
   <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,601 +105,625 @@
     <t>16,32%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
   </si>
   <si>
     <t>14,78%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>82,72%</t>
   </si>
   <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>88,0%</t>
   </si>
   <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>83,19%</t>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>87,3%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>79,95%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>12,07%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
   </si>
   <si>
     <t>15,16%</t>
@@ -1123,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967A9AB6-19C8-49F6-8060-4C72A773AC90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094F7637-58D9-4722-B4F8-23A6CF7ABE5D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1590,10 +1614,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1632,13 @@
         <v>177611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>101</v>
@@ -1623,13 +1647,13 @@
         <v>99632</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>265</v>
@@ -1638,13 +1662,13 @@
         <v>277242</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,7 +1724,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1712,13 +1736,13 @@
         <v>601088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>635</v>
@@ -1727,13 +1751,13 @@
         <v>681877</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1188</v>
@@ -1742,13 +1766,13 @@
         <v>1282965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1787,13 @@
         <v>148294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -1778,13 +1802,13 @@
         <v>99208</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>231</v>
@@ -1793,13 +1817,13 @@
         <v>247502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,7 +1879,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1867,13 +1891,13 @@
         <v>747888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>797</v>
@@ -1882,13 +1906,13 @@
         <v>875101</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1545</v>
@@ -1897,13 +1921,13 @@
         <v>1622989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1942,13 @@
         <v>181575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -1933,13 +1957,13 @@
         <v>162561</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>333</v>
@@ -1948,13 +1972,13 @@
         <v>344136</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,13 +2046,13 @@
         <v>2735922</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2884</v>
@@ -2037,13 +2061,13 @@
         <v>3084708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>5500</v>
@@ -2052,13 +2076,13 @@
         <v>5820630</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2097,13 @@
         <v>622110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>437</v>
@@ -2088,13 +2112,13 @@
         <v>443068</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1021</v>
@@ -2103,13 +2127,13 @@
         <v>1065178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,7 +2189,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8958BF4-2A24-4AD9-A8CF-53BB53384D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A126D12-D159-4707-A1CA-7B686ED33061}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2203,7 +2227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2310,13 +2334,13 @@
         <v>88950</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>229</v>
@@ -2325,13 +2349,13 @@
         <v>120107</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>338</v>
@@ -2340,13 +2364,13 @@
         <v>209057</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2385,13 @@
         <v>13032</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -2376,13 +2400,13 @@
         <v>10626</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -2391,13 +2415,13 @@
         <v>23658</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2489,13 @@
         <v>470292</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>935</v>
@@ -2480,13 +2504,13 @@
         <v>544382</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>1490</v>
@@ -2495,13 +2519,13 @@
         <v>1014674</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2540,13 @@
         <v>79531</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -2531,13 +2555,13 @@
         <v>47063</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>116</v>
@@ -2546,13 +2570,13 @@
         <v>126594</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2644,13 @@
         <v>762519</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>1338</v>
@@ -2635,13 +2659,13 @@
         <v>887087</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>2130</v>
@@ -2650,13 +2674,13 @@
         <v>1649607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2695,13 @@
         <v>275267</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>176</v>
@@ -2686,13 +2710,13 @@
         <v>168610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M11" s="7">
         <v>347</v>
@@ -2701,13 +2725,13 @@
         <v>443877</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,7 +2787,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2775,13 +2799,13 @@
         <v>577589</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>936</v>
@@ -2790,13 +2814,13 @@
         <v>760876</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>1500</v>
@@ -2805,13 +2829,13 @@
         <v>1338465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2850,13 @@
         <v>151183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>108</v>
@@ -2841,13 +2865,13 @@
         <v>110009</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>220</v>
@@ -2856,13 +2880,13 @@
         <v>261192</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,7 +2942,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2930,13 +2954,13 @@
         <v>766348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>1401</v>
@@ -2945,13 +2969,13 @@
         <v>968946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>2251</v>
@@ -2960,13 +2984,13 @@
         <v>1735295</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +3005,13 @@
         <v>199055</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -2996,13 +3020,13 @@
         <v>181326</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>316</v>
@@ -3011,13 +3035,13 @@
         <v>380380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3109,13 @@
         <v>2665699</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>4839</v>
@@ -3100,13 +3124,13 @@
         <v>3281398</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>7709</v>
@@ -3115,13 +3139,13 @@
         <v>5947097</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3160,13 @@
         <v>718067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>517</v>
@@ -3151,13 +3175,13 @@
         <v>517634</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>1022</v>
@@ -3166,13 +3190,13 @@
         <v>1235701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3252,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC47780C-B8CD-463B-B486-8BBFA533E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C2A01F-C6FF-4074-B71C-F69D55CD7272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6475664F-9A0E-41C0-AC78-FBB273A42753}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3FF2B74B-A109-4FD7-9885-16B438C51FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
   <si>
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2016 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -69,34 +69,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>85,22%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>16,32%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>14,78%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>82,72%</t>
   </si>
   <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>88,0%</t>
   </si>
   <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -195,55 +195,49 @@
     <t>82,4%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>86,47%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -252,55 +246,55 @@
     <t>80,21%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>87,3%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,70 +303,70 @@
     <t>80,46%</t>
   </si>
   <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>84,33%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>15,67%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>87,44%</t>
   </si>
   <si>
-    <t>86,36%</t>
+    <t>86,21%</t>
   </si>
   <si>
     <t>88,55%</t>
@@ -381,19 +375,19 @@
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>12,56%</t>
@@ -402,16 +396,16 @@
     <t>11,45%</t>
   </si>
   <si>
-    <t>13,64%</t>
+    <t>13,79%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -423,319 +417,313 @@
     <t>87,22%</t>
   </si>
   <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>91,87%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>93,92%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>6,08%</t>
   </si>
   <si>
     <t>85,54%</t>
   </si>
   <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>88,91%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>11,09%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>86,07%</t>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>78,8%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>13,93%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
   </si>
   <si>
     <t>21,2%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>79,26%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>83,67%</t>
   </si>
   <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>16,33%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>84,24%</t>
   </si>
   <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>15,76%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>86,37%</t>
   </si>
   <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>13,63%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094F7637-58D9-4722-B4F8-23A6CF7ABE5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B865D18-2441-4394-99D2-BC2000E507F6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1596,13 +1584,13 @@
         <v>940389</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1649</v>
@@ -1611,13 +1599,13 @@
         <v>1772204</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,13 +1620,13 @@
         <v>177611</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>101</v>
@@ -1647,13 +1635,13 @@
         <v>99632</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>265</v>
@@ -1662,13 +1650,13 @@
         <v>277242</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,7 +1712,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1736,13 +1724,13 @@
         <v>601088</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>635</v>
@@ -1751,13 +1739,13 @@
         <v>681877</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1188</v>
@@ -1766,13 +1754,13 @@
         <v>1282965</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,13 +1775,13 @@
         <v>148294</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -1802,13 +1790,13 @@
         <v>99208</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>231</v>
@@ -1817,13 +1805,13 @@
         <v>247502</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,7 +1867,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1891,13 +1879,13 @@
         <v>747888</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>797</v>
@@ -1906,13 +1894,13 @@
         <v>875101</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1545</v>
@@ -1921,13 +1909,13 @@
         <v>1622989</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1930,13 @@
         <v>181575</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>156</v>
@@ -1957,13 +1945,13 @@
         <v>162561</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>333</v>
@@ -1972,13 +1960,13 @@
         <v>344136</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,13 +2034,13 @@
         <v>2735922</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2884</v>
@@ -2061,13 +2049,13 @@
         <v>3084708</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>5500</v>
@@ -2076,13 +2064,13 @@
         <v>5820630</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2085,13 @@
         <v>622110</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>437</v>
@@ -2112,13 +2100,13 @@
         <v>443068</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1021</v>
@@ -2127,13 +2115,13 @@
         <v>1065178</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,7 +2177,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A126D12-D159-4707-A1CA-7B686ED33061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409C4F24-C481-4A31-826E-94E801F52464}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2227,7 +2215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2334,13 +2322,13 @@
         <v>88950</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>229</v>
@@ -2349,13 +2337,13 @@
         <v>120107</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>338</v>
@@ -2364,13 +2352,13 @@
         <v>209057</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2373,13 @@
         <v>13032</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -2400,13 +2388,13 @@
         <v>10626</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -2415,13 +2403,13 @@
         <v>23658</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2477,13 @@
         <v>470292</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>935</v>
@@ -2504,13 +2492,13 @@
         <v>544382</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>1490</v>
@@ -2519,13 +2507,13 @@
         <v>1014674</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2528,13 @@
         <v>79531</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -2555,13 +2543,13 @@
         <v>47063</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>116</v>
@@ -2570,13 +2558,13 @@
         <v>126594</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,28 +2632,28 @@
         <v>762519</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>1338</v>
       </c>
       <c r="I10" s="7">
-        <v>887087</v>
+        <v>887088</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>2130</v>
@@ -2674,13 +2662,13 @@
         <v>1649607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2683,13 @@
         <v>275267</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>176</v>
@@ -2710,13 +2698,13 @@
         <v>168610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>347</v>
@@ -2725,13 +2713,13 @@
         <v>443877</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2746,7 @@
         <v>1514</v>
       </c>
       <c r="I12" s="7">
-        <v>1055697</v>
+        <v>1055698</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2787,7 +2775,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2799,13 +2787,13 @@
         <v>577589</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>936</v>
@@ -2814,13 +2802,13 @@
         <v>760876</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>1500</v>
@@ -2829,13 +2817,13 @@
         <v>1338465</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2838,13 @@
         <v>151183</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>108</v>
@@ -2865,13 +2853,13 @@
         <v>110009</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>220</v>
@@ -2880,13 +2868,13 @@
         <v>261192</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,7 +2930,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2954,13 +2942,13 @@
         <v>766348</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>1401</v>
@@ -2969,13 +2957,13 @@
         <v>968946</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>2251</v>
@@ -2984,13 +2972,13 @@
         <v>1735295</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2993,13 @@
         <v>199055</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -3020,13 +3008,13 @@
         <v>181326</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>316</v>
@@ -3035,13 +3023,13 @@
         <v>380380</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3097,13 @@
         <v>2665699</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>4839</v>
@@ -3124,13 +3112,13 @@
         <v>3281398</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>7709</v>
@@ -3139,13 +3127,13 @@
         <v>5947097</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3148,13 @@
         <v>718067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>517</v>
@@ -3175,13 +3163,13 @@
         <v>517634</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>1022</v>
@@ -3190,13 +3178,13 @@
         <v>1235701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,7 +3240,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C2A01F-C6FF-4074-B71C-F69D55CD7272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0413AAB6-4B32-468D-A088-003C74FB4E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3FF2B74B-A109-4FD7-9885-16B438C51FAC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F5F57177-C241-4F8B-A004-CAB7A574040E}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="190">
   <si>
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2016 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -66,664 +66,547 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
   </si>
   <si>
     <t>79,91%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1018,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B865D18-2441-4394-99D2-BC2000E507F6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CA0831-487F-4604-9443-C064AD411FEB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1253,10 +1136,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>94</v>
+        <v>539</v>
       </c>
       <c r="D4" s="7">
-        <v>96570</v>
+        <v>555133</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1268,10 +1151,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>579</v>
       </c>
       <c r="I4" s="7">
-        <v>98375</v>
+        <v>587340</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1283,10 +1166,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>193</v>
+        <v>1118</v>
       </c>
       <c r="N4" s="7">
-        <v>194945</v>
+        <v>1142473</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1304,10 +1187,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>18830</v>
+        <v>114630</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1319,10 +1202,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I5" s="7">
-        <v>14985</v>
+        <v>81667</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1334,10 +1217,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="N5" s="7">
-        <v>33815</v>
+        <v>196298</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1355,10 +1238,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>115400</v>
+        <v>669763</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1253,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>662</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>669007</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1268,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>227</v>
+        <v>1310</v>
       </c>
       <c r="N6" s="7">
-        <v>228760</v>
+        <v>1338771</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1408,49 +1291,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>445</v>
+        <v>776</v>
       </c>
       <c r="D7" s="7">
-        <v>458562</v>
+        <v>831813</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>873</v>
+      </c>
+      <c r="I7" s="7">
+        <v>940389</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>480</v>
-      </c>
-      <c r="I7" s="7">
-        <v>488965</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>1649</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1772203</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>925</v>
-      </c>
-      <c r="N7" s="7">
-        <v>947528</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,49 +1342,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>95801</v>
+        <v>177611</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>101</v>
+      </c>
+      <c r="I8" s="7">
+        <v>99632</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>67</v>
-      </c>
-      <c r="I8" s="7">
-        <v>66682</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>265</v>
+      </c>
+      <c r="N8" s="7">
+        <v>277242</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>158</v>
-      </c>
-      <c r="N8" s="7">
-        <v>162483</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,10 +1393,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>536</v>
+        <v>940</v>
       </c>
       <c r="D9" s="7">
-        <v>554363</v>
+        <v>1009424</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1408,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>974</v>
       </c>
       <c r="I9" s="7">
-        <v>555647</v>
+        <v>1040021</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1423,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1083</v>
+        <v>1914</v>
       </c>
       <c r="N9" s="7">
-        <v>1110011</v>
+        <v>2049445</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1440,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>776</v>
+        <v>553</v>
       </c>
       <c r="D10" s="7">
-        <v>831813</v>
+        <v>601088</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>635</v>
+      </c>
+      <c r="I10" s="7">
+        <v>681877</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>873</v>
-      </c>
-      <c r="I10" s="7">
-        <v>940389</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1188</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1282965</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="7">
-        <v>1649</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1772204</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,28 +1497,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D11" s="7">
-        <v>177611</v>
+        <v>148294</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>97</v>
+      </c>
+      <c r="I11" s="7">
+        <v>99208</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>101</v>
-      </c>
-      <c r="I11" s="7">
-        <v>99632</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>62</v>
@@ -1644,10 +1527,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="N11" s="7">
-        <v>277242</v>
+        <v>247502</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1665,10 +1548,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>940</v>
+        <v>687</v>
       </c>
       <c r="D12" s="7">
-        <v>1009424</v>
+        <v>749382</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1563,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>974</v>
+        <v>732</v>
       </c>
       <c r="I12" s="7">
-        <v>1040021</v>
+        <v>781085</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1578,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1914</v>
+        <v>1419</v>
       </c>
       <c r="N12" s="7">
-        <v>2049446</v>
+        <v>1530467</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1718,10 +1601,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>553</v>
+        <v>748</v>
       </c>
       <c r="D13" s="7">
-        <v>601088</v>
+        <v>747888</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -1733,10 +1616,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>635</v>
+        <v>797</v>
       </c>
       <c r="I13" s="7">
-        <v>681877</v>
+        <v>875101</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -1748,10 +1631,10 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>1188</v>
+        <v>1545</v>
       </c>
       <c r="N13" s="7">
-        <v>1282965</v>
+        <v>1622989</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -1769,10 +1652,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="D14" s="7">
-        <v>148294</v>
+        <v>181575</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1784,10 +1667,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="I14" s="7">
-        <v>99208</v>
+        <v>162561</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1799,10 +1682,10 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c r="N14" s="7">
-        <v>247502</v>
+        <v>344136</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1820,10 +1703,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>687</v>
+        <v>925</v>
       </c>
       <c r="D15" s="7">
-        <v>749382</v>
+        <v>929463</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1835,10 +1718,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>732</v>
+        <v>953</v>
       </c>
       <c r="I15" s="7">
-        <v>781085</v>
+        <v>1037662</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1850,10 +1733,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1419</v>
+        <v>1878</v>
       </c>
       <c r="N15" s="7">
-        <v>1530467</v>
+        <v>1967125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1867,55 +1750,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>748</v>
+        <v>2616</v>
       </c>
       <c r="D16" s="7">
-        <v>747888</v>
+        <v>2735922</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2884</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3084708</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>797</v>
-      </c>
-      <c r="I16" s="7">
-        <v>875101</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5500</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5820630</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="7">
-        <v>1545</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1622989</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,49 +1807,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>177</v>
+        <v>584</v>
       </c>
       <c r="D17" s="7">
-        <v>181575</v>
+        <v>622110</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>437</v>
+      </c>
+      <c r="I17" s="7">
+        <v>443068</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>156</v>
-      </c>
-      <c r="I17" s="7">
-        <v>162561</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1021</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1065178</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>333</v>
-      </c>
-      <c r="N17" s="7">
-        <v>344136</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,10 +1858,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>925</v>
+        <v>3200</v>
       </c>
       <c r="D18" s="7">
-        <v>929463</v>
+        <v>3358032</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1873,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>953</v>
+        <v>3321</v>
       </c>
       <c r="I18" s="7">
-        <v>1037662</v>
+        <v>3527776</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1888,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1878</v>
+        <v>6521</v>
       </c>
       <c r="N18" s="7">
-        <v>1967125</v>
+        <v>6885808</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2021,171 +1904,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2616</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2735922</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2884</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3084708</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5500</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5820630</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>584</v>
-      </c>
-      <c r="D20" s="7">
-        <v>622110</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>437</v>
-      </c>
-      <c r="I20" s="7">
-        <v>443068</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1021</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1065178</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3200</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3358032</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3321</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3527776</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6521</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6885808</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2198,8 +1925,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409C4F24-C481-4A31-826E-94E801F52464}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86ED38F-06FD-467B-A4FA-FDE949827901}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2215,7 +1942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2316,49 +2043,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>664</v>
+      </c>
+      <c r="D4" s="7">
+        <v>546685</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1164</v>
+      </c>
+      <c r="I4" s="7">
+        <v>623447</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="7">
-        <v>88950</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="7">
-        <v>229</v>
-      </c>
-      <c r="I4" s="7">
-        <v>120107</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>338</v>
+        <v>1828</v>
       </c>
       <c r="N4" s="7">
-        <v>209057</v>
+        <v>1170132</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,49 +2094,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7">
-        <v>13032</v>
+        <v>88756</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="I5" s="7">
-        <v>10626</v>
+        <v>50830</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="N5" s="7">
-        <v>23658</v>
+        <v>139586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,10 +2145,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2433,10 +2160,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674277</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2448,10 +2175,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1309718</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2471,49 +2198,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>555</v>
+        <v>792</v>
       </c>
       <c r="D7" s="7">
-        <v>470292</v>
+        <v>737463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>935</v>
+        <v>1338</v>
       </c>
       <c r="I7" s="7">
-        <v>544382</v>
+        <v>811175</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>1490</v>
+        <v>2130</v>
       </c>
       <c r="N7" s="7">
-        <v>1014674</v>
+        <v>1548638</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,49 +2249,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="D8" s="7">
-        <v>79531</v>
+        <v>453906</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I8" s="7">
-        <v>47063</v>
+        <v>143550</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>116</v>
+        <v>347</v>
       </c>
       <c r="N8" s="7">
-        <v>126594</v>
+        <v>597455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,10 +2300,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1191369</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2588,10 +2315,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>591445</v>
+        <v>954725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2603,10 +2330,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2477</v>
       </c>
       <c r="N9" s="7">
-        <v>1141268</v>
+        <v>2146093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2620,55 +2347,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>792</v>
+        <v>564</v>
       </c>
       <c r="D10" s="7">
-        <v>762519</v>
+        <v>557432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>1338</v>
+        <v>936</v>
       </c>
       <c r="I10" s="7">
-        <v>887088</v>
+        <v>832381</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
-        <v>2130</v>
+        <v>1500</v>
       </c>
       <c r="N10" s="7">
-        <v>1649607</v>
+        <v>1389812</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,49 +2404,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="D11" s="7">
-        <v>275267</v>
+        <v>147248</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="I11" s="7">
-        <v>168610</v>
+        <v>98029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>347</v>
+        <v>220</v>
       </c>
       <c r="N11" s="7">
-        <v>443877</v>
+        <v>245278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,10 +2455,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1037786</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2743,10 +2470,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1055698</v>
+        <v>930410</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2758,10 +2485,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2477</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2093484</v>
+        <v>1635090</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2781,49 +2508,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>564</v>
+        <v>850</v>
       </c>
       <c r="D13" s="7">
-        <v>577589</v>
+        <v>740676</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>936</v>
+        <v>1401</v>
       </c>
       <c r="I13" s="7">
-        <v>760876</v>
+        <v>886635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>1500</v>
+        <v>2251</v>
       </c>
       <c r="N13" s="7">
-        <v>1338465</v>
+        <v>1627311</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,49 +2559,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D14" s="7">
-        <v>151183</v>
+        <v>186155</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="I14" s="7">
-        <v>110009</v>
+        <v>208135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>220</v>
+        <v>316</v>
       </c>
       <c r="N14" s="7">
-        <v>261192</v>
+        <v>394290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,10 +2610,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2898,10 +2625,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>870885</v>
+        <v>1094770</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2913,10 +2640,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2567</v>
       </c>
       <c r="N15" s="7">
-        <v>1599657</v>
+        <v>2021601</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2930,55 +2657,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>850</v>
+        <v>2870</v>
       </c>
       <c r="D16" s="7">
-        <v>766348</v>
+        <v>2582257</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
-        <v>1401</v>
+        <v>4839</v>
       </c>
       <c r="I16" s="7">
-        <v>968946</v>
+        <v>3153638</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>2251</v>
+        <v>7709</v>
       </c>
       <c r="N16" s="7">
-        <v>1735295</v>
+        <v>5735894</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2714,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>156</v>
+        <v>505</v>
       </c>
       <c r="D17" s="7">
-        <v>199055</v>
+        <v>876065</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
-        <v>160</v>
+        <v>517</v>
       </c>
       <c r="I17" s="7">
-        <v>181326</v>
+        <v>500544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
-        <v>316</v>
+        <v>1022</v>
       </c>
       <c r="N17" s="7">
-        <v>380380</v>
+        <v>1376609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2765,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458322</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2780,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5356</v>
       </c>
       <c r="I18" s="7">
-        <v>1150272</v>
+        <v>3654182</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2795,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2567</v>
+        <v>8731</v>
       </c>
       <c r="N18" s="7">
-        <v>2115675</v>
+        <v>7112503</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3084,171 +2811,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2870</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2665699</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4839</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3281398</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7709</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5947097</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>505</v>
-      </c>
-      <c r="D20" s="7">
-        <v>718067</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="7">
-        <v>517</v>
-      </c>
-      <c r="I20" s="7">
-        <v>517634</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1022</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1235701</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383766</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5356</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3799032</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8731</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7182798</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
